--- a/excel_file_formats/Draft data_AA.xlsx
+++ b/excel_file_formats/Draft data_AA.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="53">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Andhra Pradesh</t>
   </si>
   <si>
-    <t xml:space="preserve">GW Assessment Year</t>
+    <t xml:space="preserve">Assessment Year</t>
   </si>
   <si>
     <t xml:space="preserve">2015-2016</t>
@@ -52,6 +52,24 @@
     <t xml:space="preserve">Village</t>
   </si>
   <si>
+    <t xml:space="preserve">Guidelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated draft/well/day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operative days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assessment Unit</t>
   </si>
   <si>
@@ -61,12 +79,6 @@
     <t xml:space="preserve">Type of Structure</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimated draft/well/day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operative days</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference Year</t>
   </si>
   <si>
@@ -82,18 +94,18 @@
     <t xml:space="preserve">Non-Monsoon</t>
   </si>
   <si>
+    <t xml:space="preserve">Visakhapatnam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nemalladinne</t>
   </si>
   <si>
+    <t xml:space="preserve">N.Kottalapalli</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irrigation Power Consumption</t>
   </si>
   <si>
-    <t xml:space="preserve">S.No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
     <t xml:space="preserve">Command Area</t>
   </si>
   <si>
@@ -109,12 +121,6 @@
     <t xml:space="preserve">Total power consumed In kilo watt hours[kWh]</t>
   </si>
   <si>
-    <t xml:space="preserve">Visakhapatnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.Kottalapalli</t>
-  </si>
-  <si>
     <t xml:space="preserve">Domestic Consumptive use pattern</t>
   </si>
   <si>
@@ -133,15 +139,6 @@
     <t xml:space="preserve">Population as on Reference Year</t>
   </si>
   <si>
-    <t xml:space="preserve"> update population pojo to include gw dependency </t>
-  </si>
-  <si>
-    <t xml:space="preserve">update population in location md to map of string(sub-unit) vs population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population pojo : remove area wise population, noOfDays</t>
-  </si>
-  <si>
     <t xml:space="preserve">Industry Consumptive use pattern</t>
   </si>
   <si>
@@ -160,15 +157,12 @@
     <t xml:space="preserve">No. of days water is being extracted</t>
   </si>
   <si>
-    <t xml:space="preserve">udpate location_md : getIndustryconsumptiondata to map&lt;String, ... &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update industrycinsumptionmd to include no of industry</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ground water irrigated area</t>
   </si>
   <si>
+    <t xml:space="preserve">mandal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irrigation Source</t>
   </si>
   <si>
@@ -187,13 +181,10 @@
     <t xml:space="preserve">crop name</t>
   </si>
   <si>
+    <t xml:space="preserve">Area under  crop in acres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non-monsoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update locationMd::getCropInfo to map&lt;String, ...&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">irrigation source either will be surface/gw</t>
   </si>
 </sst>
 </file>
@@ -203,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -283,8 +274,16 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,18 +292,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -313,12 +306,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF2C2C2C"/>
-      </bottom>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -341,20 +332,6 @@
       <bottom style="thin">
         <color rgb="FF2C2C2C"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -383,7 +360,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,20 +381,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -432,72 +433,80 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -577,20 +586,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.2551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,6 +659,7 @@
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -694,6 +711,7 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -745,6 +763,7 @@
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -775,7 +794,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="4"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -796,12 +815,15 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -818,7 +840,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -843,90 +865,142 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="L9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7" t="s">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="A12" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="S.No"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -942,20 +1016,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.2551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,6 +1089,7 @@
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1059,6 +1141,7 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -1110,6 +1193,7 @@
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -1140,7 +1224,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="4"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1161,12 +1245,15 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1183,7 +1270,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1208,90 +1295,142 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="L9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7" t="s">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="A12" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="S.No"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1307,20 +1446,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.2551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,6 +1519,7 @@
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1424,6 +1571,7 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -1475,6 +1623,7 @@
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -1505,7 +1654,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="4"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1526,12 +1675,15 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1548,7 +1700,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1573,90 +1725,142 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="L9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7" t="s">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="A12" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="S.No"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1672,18 +1876,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DT16"/>
+  <dimension ref="A1:DU14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,8 +1913,9 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1726,13 +1936,14 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1748,8 +1959,9 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1782,7 +1994,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="2"/>
+      <c r="AC4" s="4"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1803,13 +2015,13 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
@@ -1835,7 +2047,7 @@
       <c r="BW4" s="4"/>
       <c r="BX4" s="4"/>
       <c r="BY4" s="4"/>
-      <c r="BZ4" s="2"/>
+      <c r="BZ4" s="4"/>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
@@ -1882,9 +2094,12 @@
       <c r="DR4" s="2"/>
       <c r="DS4" s="2"/>
       <c r="DT4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="DU4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1900,8 +2115,9 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1918,236 +2134,248 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="G9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="H9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="S.No"/>
@@ -2167,18 +2395,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DN65536"/>
+  <dimension ref="A1:DO16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="57.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2208,8 +2441,9 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2239,13 +2473,14 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2264,6 +2499,518 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="2"/>
+      <c r="DF4" s="2"/>
+      <c r="DG4" s="2"/>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="2"/>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="S.No"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:DN17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1019" min="13" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.10204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -2394,7 +3141,9 @@
       <c r="DN4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2407,834 +3156,339 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="K11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="D14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
+  <mergeCells count="23">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:W10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="S.No"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:DM23"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.25"/>
-    <col collapsed="false" hidden="false" max="1018" min="12" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CF4" s="2"/>
-      <c r="CG4" s="2"/>
-      <c r="CH4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
-      <c r="CK4" s="2"/>
-      <c r="CL4" s="2"/>
-      <c r="CM4" s="2"/>
-      <c r="CN4" s="2"/>
-      <c r="CO4" s="2"/>
-      <c r="CP4" s="2"/>
-      <c r="CQ4" s="2"/>
-      <c r="CR4" s="2"/>
-      <c r="CS4" s="2"/>
-      <c r="CT4" s="2"/>
-      <c r="CU4" s="2"/>
-      <c r="CV4" s="2"/>
-      <c r="CW4" s="2"/>
-      <c r="CX4" s="2"/>
-      <c r="CY4" s="2"/>
-      <c r="CZ4" s="2"/>
-      <c r="DA4" s="2"/>
-      <c r="DB4" s="2"/>
-      <c r="DC4" s="2"/>
-      <c r="DD4" s="2"/>
-      <c r="DE4" s="2"/>
-      <c r="DF4" s="2"/>
-      <c r="DG4" s="2"/>
-      <c r="DH4" s="2"/>
-      <c r="DI4" s="2"/>
-      <c r="DJ4" s="2"/>
-      <c r="DK4" s="2"/>
-      <c r="DL4" s="2"/>
-      <c r="DM4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="20"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:V7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="S.No"/>
+    <hyperlink ref="A9" r:id="rId1" display="S.No"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3251,18 +3505,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="8" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3292,8 +3558,9 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3326,13 +3593,14 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3360,8 +3628,9 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3375,346 +3644,367 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="AB4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA11" s="31"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="I12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23" t="s">
+      <c r="D14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="F7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="F8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="22"/>
-      <c r="W8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z8" s="22"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="K9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="R9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="U9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" s="22"/>
-      <c r="Y9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z9" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="27"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="28"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="28"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="0" t="s">
-        <v>55</v>
-      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Z7"/>
+  <mergeCells count="11">
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="N9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="Z11:AA11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="S.No"/>
+    <hyperlink ref="A9" r:id="rId1" display="S.No"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
